--- a/data/pca/factorExposure/factorExposure_2019-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1197066001908329</v>
+        <v>0.07877186133606433</v>
       </c>
       <c r="C2">
-        <v>-0.01814130845795524</v>
+        <v>-0.01173931601966689</v>
       </c>
       <c r="D2">
-        <v>0.01811993545949769</v>
+        <v>0.03243121647034315</v>
       </c>
       <c r="E2">
-        <v>-0.1092926439858812</v>
+        <v>-0.1383269555712184</v>
       </c>
       <c r="F2">
-        <v>0.07316032285768308</v>
+        <v>-0.02133961108023978</v>
       </c>
       <c r="G2">
-        <v>0.116637431117778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0768935091822167</v>
+      </c>
+      <c r="H2">
+        <v>-0.08612528670234632</v>
+      </c>
+      <c r="I2">
+        <v>-0.06642972458049894</v>
+      </c>
+      <c r="J2">
+        <v>0.02583701104706137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.211073378852783</v>
+        <v>0.163962457772201</v>
       </c>
       <c r="C3">
-        <v>0.07225575947210694</v>
+        <v>-0.08073885940883625</v>
       </c>
       <c r="D3">
-        <v>-0.08090513086057802</v>
+        <v>-0.04831036437124501</v>
       </c>
       <c r="E3">
-        <v>-0.319159771727442</v>
+        <v>-0.3578323869226069</v>
       </c>
       <c r="F3">
-        <v>-0.02040878547497007</v>
+        <v>-0.1365495641112368</v>
       </c>
       <c r="G3">
-        <v>0.3524861585371774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01007715322696002</v>
+      </c>
+      <c r="H3">
+        <v>-0.2629537431536486</v>
+      </c>
+      <c r="I3">
+        <v>-0.1381545320498589</v>
+      </c>
+      <c r="J3">
+        <v>-0.1444929108224655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09933270767991889</v>
+        <v>0.07421536281666907</v>
       </c>
       <c r="C4">
-        <v>0.01468604325154934</v>
+        <v>-0.02881137449036078</v>
       </c>
       <c r="D4">
-        <v>-0.0002864151036212312</v>
+        <v>0.02283480026990866</v>
       </c>
       <c r="E4">
-        <v>-0.09183593031299089</v>
+        <v>-0.08310547524837314</v>
       </c>
       <c r="F4">
-        <v>0.0370782121701694</v>
+        <v>-0.0585375015206349</v>
       </c>
       <c r="G4">
-        <v>0.03223337188840678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03476605348164391</v>
+      </c>
+      <c r="H4">
+        <v>-0.0371246299875404</v>
+      </c>
+      <c r="I4">
+        <v>-0.01603270896194122</v>
+      </c>
+      <c r="J4">
+        <v>-0.04918121744246916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01012868555821999</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003657251374935887</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0009046720086780719</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005550742352500955</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003467361846462432</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01274644385334681</v>
+      </c>
+      <c r="H6">
+        <v>-0.005034839047431051</v>
+      </c>
+      <c r="I6">
+        <v>-0.003135147396244709</v>
+      </c>
+      <c r="J6">
+        <v>0.0001931296628424772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0439043516768669</v>
+        <v>0.03564968901984676</v>
       </c>
       <c r="C7">
-        <v>0.002264527235323974</v>
+        <v>-0.01542521499264494</v>
       </c>
       <c r="D7">
-        <v>0.025525898253973</v>
+        <v>0.01665458907583609</v>
       </c>
       <c r="E7">
-        <v>-0.07302769918945441</v>
+        <v>-0.05477548765877778</v>
       </c>
       <c r="F7">
-        <v>-0.04751163431535586</v>
+        <v>-0.03305465845916433</v>
       </c>
       <c r="G7">
-        <v>0.01759655116332851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01652268821536277</v>
+      </c>
+      <c r="H7">
+        <v>-0.04188490299058392</v>
+      </c>
+      <c r="I7">
+        <v>0.001656610823963456</v>
+      </c>
+      <c r="J7">
+        <v>-0.0274558000657149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04142341740418687</v>
+        <v>0.03222838872202452</v>
       </c>
       <c r="C8">
-        <v>0.03146463081908415</v>
+        <v>-0.03402688916294658</v>
       </c>
       <c r="D8">
-        <v>-0.007237393889340824</v>
+        <v>0.007246852961158252</v>
       </c>
       <c r="E8">
-        <v>-0.06900855902060109</v>
+        <v>-0.07344716374130354</v>
       </c>
       <c r="F8">
-        <v>-0.006712788600351384</v>
+        <v>-0.05090935455969586</v>
       </c>
       <c r="G8">
-        <v>0.05370040159331026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0009700649268247828</v>
+      </c>
+      <c r="H8">
+        <v>-0.05560756713822342</v>
+      </c>
+      <c r="I8">
+        <v>-0.03325358974968127</v>
+      </c>
+      <c r="J8">
+        <v>-0.03011546907703422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08751877064462063</v>
+        <v>0.06404074188721089</v>
       </c>
       <c r="C9">
-        <v>0.01592640682691994</v>
+        <v>-0.02814469302121558</v>
       </c>
       <c r="D9">
-        <v>0.01482873957843039</v>
+        <v>0.02435538490218049</v>
       </c>
       <c r="E9">
-        <v>-0.0807639696992654</v>
+        <v>-0.07961434046352746</v>
       </c>
       <c r="F9">
-        <v>0.02224271846934108</v>
+        <v>-0.06349237225004663</v>
       </c>
       <c r="G9">
-        <v>0.03207991227290757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02683010982247603</v>
+      </c>
+      <c r="H9">
+        <v>-0.0333898500523153</v>
+      </c>
+      <c r="I9">
+        <v>-0.009256947101741774</v>
+      </c>
+      <c r="J9">
+        <v>-0.01466203155504872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02123623459583202</v>
+        <v>0.00495157057428108</v>
       </c>
       <c r="C10">
-        <v>-0.1608820527985414</v>
+        <v>0.159332772891973</v>
       </c>
       <c r="D10">
-        <v>-0.006424554594088313</v>
+        <v>-0.0121337451670843</v>
       </c>
       <c r="E10">
-        <v>-0.03473203678893741</v>
+        <v>-0.04980758758826842</v>
       </c>
       <c r="F10">
-        <v>-0.004738627115403632</v>
+        <v>-0.003143638080341464</v>
       </c>
       <c r="G10">
-        <v>-0.01012132266557457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01279887055994735</v>
+      </c>
+      <c r="H10">
+        <v>0.01850622156826624</v>
+      </c>
+      <c r="I10">
+        <v>-0.1151486918845234</v>
+      </c>
+      <c r="J10">
+        <v>-0.05234704034603799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05967130932088658</v>
+        <v>0.05090608954312432</v>
       </c>
       <c r="C11">
-        <v>-0.002730895830405045</v>
+        <v>-0.016318128819069</v>
       </c>
       <c r="D11">
-        <v>-0.01403878602956486</v>
+        <v>0.004371412943042524</v>
       </c>
       <c r="E11">
-        <v>-0.04221580566651791</v>
+        <v>-0.04829178909627947</v>
       </c>
       <c r="F11">
-        <v>-0.0003566985479369995</v>
+        <v>-0.005766678170852281</v>
       </c>
       <c r="G11">
-        <v>-0.006734438725709158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002215811851919296</v>
+      </c>
+      <c r="H11">
+        <v>-0.0196756281491975</v>
+      </c>
+      <c r="I11">
+        <v>0.01252581929175941</v>
+      </c>
+      <c r="J11">
+        <v>3.990626250110823e-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04996436320084656</v>
+        <v>0.04925276523340694</v>
       </c>
       <c r="C12">
-        <v>0.001954483920517298</v>
+        <v>-0.0166014884645282</v>
       </c>
       <c r="D12">
-        <v>-0.007589775129016985</v>
+        <v>0.00716027692623209</v>
       </c>
       <c r="E12">
-        <v>-0.02662357889058981</v>
+        <v>-0.02418442140179234</v>
       </c>
       <c r="F12">
-        <v>-0.007363537714442148</v>
+        <v>-0.01784762450196729</v>
       </c>
       <c r="G12">
-        <v>0.0015274816716969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002473657529024508</v>
+      </c>
+      <c r="H12">
+        <v>-0.007417275827738083</v>
+      </c>
+      <c r="I12">
+        <v>0.01793864726608777</v>
+      </c>
+      <c r="J12">
+        <v>0.003458248440923935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05905645923043761</v>
+        <v>0.04054897078870671</v>
       </c>
       <c r="C13">
-        <v>0.01354554610366388</v>
+        <v>-0.01924264308346512</v>
       </c>
       <c r="D13">
-        <v>-0.02436641867122131</v>
+        <v>0.003568312311857606</v>
       </c>
       <c r="E13">
-        <v>-0.1104305786745701</v>
+        <v>-0.103660982812547</v>
       </c>
       <c r="F13">
-        <v>0.001793703787350417</v>
+        <v>-0.01549936654314409</v>
       </c>
       <c r="G13">
-        <v>0.04051476542122318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0003291295423573368</v>
+      </c>
+      <c r="H13">
+        <v>-0.05615087908924792</v>
+      </c>
+      <c r="I13">
+        <v>-0.02677171174746956</v>
+      </c>
+      <c r="J13">
+        <v>0.009889022460202273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03805504569893049</v>
+        <v>0.0289876164679071</v>
       </c>
       <c r="C14">
-        <v>0.003712071922705163</v>
+        <v>-0.01258262167586831</v>
       </c>
       <c r="D14">
-        <v>0.01518315392410328</v>
+        <v>0.02086390611779044</v>
       </c>
       <c r="E14">
-        <v>-0.02356231014759938</v>
+        <v>-0.03593759156998962</v>
       </c>
       <c r="F14">
-        <v>-0.003355586381630486</v>
+        <v>-0.02279163227669367</v>
       </c>
       <c r="G14">
-        <v>0.04200323715051656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01231277153374915</v>
+      </c>
+      <c r="H14">
+        <v>-0.06296185187869509</v>
+      </c>
+      <c r="I14">
+        <v>-0.02149979745650281</v>
+      </c>
+      <c r="J14">
+        <v>-0.009247584144776019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05235461978560844</v>
+        <v>0.04365563210151379</v>
       </c>
       <c r="C16">
-        <v>0.01559331410469176</v>
+        <v>-0.02514683112138494</v>
       </c>
       <c r="D16">
-        <v>-0.02433813499029475</v>
+        <v>-0.00217350380789906</v>
       </c>
       <c r="E16">
-        <v>-0.04006605153666042</v>
+        <v>-0.04487675956302786</v>
       </c>
       <c r="F16">
-        <v>-0.004633688751284114</v>
+        <v>-0.01007164772491293</v>
       </c>
       <c r="G16">
-        <v>-0.005951513152983185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004546119808572792</v>
+      </c>
+      <c r="H16">
+        <v>-0.01858182833736126</v>
+      </c>
+      <c r="I16">
+        <v>0.01400325698971716</v>
+      </c>
+      <c r="J16">
+        <v>-0.004256518807434275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04882485996807431</v>
+        <v>0.0485376322897393</v>
       </c>
       <c r="C19">
-        <v>0.02691473136655392</v>
+        <v>-0.03133939594919371</v>
       </c>
       <c r="D19">
-        <v>-0.01130004102579849</v>
+        <v>0.005087222085975868</v>
       </c>
       <c r="E19">
-        <v>-0.07493687359849149</v>
+        <v>-0.08988543074290112</v>
       </c>
       <c r="F19">
-        <v>-0.00761621543566298</v>
+        <v>-0.03828074712675847</v>
       </c>
       <c r="G19">
-        <v>0.06516788708592058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.007540050196426218</v>
+      </c>
+      <c r="H19">
+        <v>-0.07509690093760452</v>
+      </c>
+      <c r="I19">
+        <v>-0.06310684218050851</v>
+      </c>
+      <c r="J19">
+        <v>0.001594359130849109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03610421618865545</v>
+        <v>0.0192212397697228</v>
       </c>
       <c r="C20">
-        <v>0.02887726222325097</v>
+        <v>-0.03030949239927893</v>
       </c>
       <c r="D20">
-        <v>-0.002883273781553832</v>
+        <v>0.01191126785948952</v>
       </c>
       <c r="E20">
-        <v>-0.07337431196744357</v>
+        <v>-0.06874861030262402</v>
       </c>
       <c r="F20">
-        <v>-0.01582228717405819</v>
+        <v>-0.03927634937707136</v>
       </c>
       <c r="G20">
-        <v>0.05553701266353802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.008629054011989115</v>
+      </c>
+      <c r="H20">
+        <v>-0.07465785840486218</v>
+      </c>
+      <c r="I20">
+        <v>-0.01500871925669988</v>
+      </c>
+      <c r="J20">
+        <v>-0.03732283674420495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03825447541461848</v>
+        <v>0.01752973665133263</v>
       </c>
       <c r="C21">
-        <v>0.01105286268031632</v>
+        <v>-0.02233736157804701</v>
       </c>
       <c r="D21">
-        <v>-0.02031109813535767</v>
+        <v>-0.009203974071718799</v>
       </c>
       <c r="E21">
-        <v>-0.08922222299471164</v>
+        <v>-0.08057732152526705</v>
       </c>
       <c r="F21">
-        <v>0.02610417276264818</v>
+        <v>-0.03412906728001634</v>
       </c>
       <c r="G21">
-        <v>0.04455837181711853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01358233579490793</v>
+      </c>
+      <c r="H21">
+        <v>-0.04705202780690944</v>
+      </c>
+      <c r="I21">
+        <v>-0.0006452688063074996</v>
+      </c>
+      <c r="J21">
+        <v>0.01927552822372332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04718867557586523</v>
+        <v>0.04122739621604268</v>
       </c>
       <c r="C24">
-        <v>0.008899846427575955</v>
+        <v>-0.01504727889175958</v>
       </c>
       <c r="D24">
-        <v>-0.01220190599621025</v>
+        <v>0.004265550375708414</v>
       </c>
       <c r="E24">
-        <v>-0.05433362921413536</v>
+        <v>-0.04875258472386136</v>
       </c>
       <c r="F24">
-        <v>-0.003632269870548089</v>
+        <v>-0.01052935414584823</v>
       </c>
       <c r="G24">
-        <v>-0.007986257255409454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01025521455254216</v>
+      </c>
+      <c r="H24">
+        <v>-0.0154807681625616</v>
+      </c>
+      <c r="I24">
+        <v>0.01123074019639504</v>
+      </c>
+      <c r="J24">
+        <v>-0.007563337930493956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05097105900999079</v>
+        <v>0.04473914159951928</v>
       </c>
       <c r="C25">
-        <v>-0.002070008247555395</v>
+        <v>-0.0152733750917099</v>
       </c>
       <c r="D25">
-        <v>-0.01233764395477038</v>
+        <v>0.002849701440138782</v>
       </c>
       <c r="E25">
-        <v>-0.04128472117678009</v>
+        <v>-0.04789135345602393</v>
       </c>
       <c r="F25">
-        <v>-0.002792356744247778</v>
+        <v>-0.0133930685030621</v>
       </c>
       <c r="G25">
-        <v>-0.01007456030275014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.00505765841329793</v>
+      </c>
+      <c r="H25">
+        <v>-0.009457345529982102</v>
+      </c>
+      <c r="I25">
+        <v>0.01329301025443671</v>
+      </c>
+      <c r="J25">
+        <v>0.003429694664309707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002074266579785668</v>
+        <v>0.009283220127424288</v>
       </c>
       <c r="C26">
-        <v>0.01434653162140189</v>
+        <v>-0.01512117634334877</v>
       </c>
       <c r="D26">
-        <v>0.002206180073924532</v>
+        <v>-0.004888156919139203</v>
       </c>
       <c r="E26">
-        <v>-0.05818733775838004</v>
+        <v>-0.05987240183223792</v>
       </c>
       <c r="F26">
-        <v>0.01395040050278792</v>
+        <v>-0.005070463024990404</v>
       </c>
       <c r="G26">
-        <v>0.01857924658319546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.006726665370367054</v>
+      </c>
+      <c r="H26">
+        <v>-0.0360907146242146</v>
+      </c>
+      <c r="I26">
+        <v>0.002843363405291003</v>
+      </c>
+      <c r="J26">
+        <v>-0.02140062635716715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1095372019790378</v>
+        <v>0.09001857799507679</v>
       </c>
       <c r="C27">
-        <v>0.001439643001170749</v>
+        <v>-0.01729757707073038</v>
       </c>
       <c r="D27">
-        <v>0.008863439909034947</v>
+        <v>0.02968547174236738</v>
       </c>
       <c r="E27">
-        <v>-0.1094158033440568</v>
+        <v>-0.08173698158395237</v>
       </c>
       <c r="F27">
-        <v>-0.009175990139048821</v>
+        <v>-0.04670289850200501</v>
       </c>
       <c r="G27">
-        <v>-0.01842949161015235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.00220392126932887</v>
+      </c>
+      <c r="H27">
+        <v>-0.008544592406874685</v>
+      </c>
+      <c r="I27">
+        <v>0.003044214982397128</v>
+      </c>
+      <c r="J27">
+        <v>-0.02195873100698758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02616527652563416</v>
+        <v>0.01192198292887626</v>
       </c>
       <c r="C28">
-        <v>-0.2348888331982958</v>
+        <v>0.2298823496185106</v>
       </c>
       <c r="D28">
-        <v>-0.01853267506479172</v>
+        <v>-0.01791308325649783</v>
       </c>
       <c r="E28">
-        <v>-0.01606569217856668</v>
+        <v>-0.03967808869886054</v>
       </c>
       <c r="F28">
-        <v>-0.0006359439374843549</v>
+        <v>0.001647778112800426</v>
       </c>
       <c r="G28">
-        <v>-0.04391892445763615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01826182485012359</v>
+      </c>
+      <c r="H28">
+        <v>0.03950618993253631</v>
+      </c>
+      <c r="I28">
+        <v>-0.1511158407228084</v>
+      </c>
+      <c r="J28">
+        <v>-0.08212356442993253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02121991934575059</v>
+        <v>0.01996110323104914</v>
       </c>
       <c r="C29">
-        <v>0.01443564154532305</v>
+        <v>-0.0180048785328474</v>
       </c>
       <c r="D29">
-        <v>0.01531351456974002</v>
+        <v>0.01757394657647573</v>
       </c>
       <c r="E29">
-        <v>-0.04057175349532142</v>
+        <v>-0.03440074175718628</v>
       </c>
       <c r="F29">
-        <v>0.009662373790680133</v>
+        <v>-0.03332493261367</v>
       </c>
       <c r="G29">
-        <v>0.04578174902601619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01696075250913858</v>
+      </c>
+      <c r="H29">
+        <v>-0.06165571272042125</v>
+      </c>
+      <c r="I29">
+        <v>-0.009935582483802391</v>
+      </c>
+      <c r="J29">
+        <v>-0.01248295622145266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1060811921015355</v>
+        <v>0.1035498404440849</v>
       </c>
       <c r="C30">
-        <v>-0.00238394869504632</v>
+        <v>-0.02765989945305898</v>
       </c>
       <c r="D30">
-        <v>-0.001077596252234989</v>
+        <v>0.02764950146278202</v>
       </c>
       <c r="E30">
-        <v>-0.1327828337376952</v>
+        <v>-0.1131871435718157</v>
       </c>
       <c r="F30">
-        <v>-0.005392843296848322</v>
+        <v>-0.02399215327111284</v>
       </c>
       <c r="G30">
-        <v>-0.07628432137563197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02565123688312263</v>
+      </c>
+      <c r="H30">
+        <v>-0.009569267654736622</v>
+      </c>
+      <c r="I30">
+        <v>0.02975853296816472</v>
+      </c>
+      <c r="J30">
+        <v>0.01689487199273815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05666457274091338</v>
+        <v>0.05663348493430612</v>
       </c>
       <c r="C31">
-        <v>0.008723249296769783</v>
+        <v>-0.01567760190858123</v>
       </c>
       <c r="D31">
-        <v>0.0139284063355297</v>
+        <v>0.0149835845114718</v>
       </c>
       <c r="E31">
-        <v>0.004048861172453068</v>
+        <v>-0.01788259678280779</v>
       </c>
       <c r="F31">
-        <v>0.02001176124246347</v>
+        <v>0.01436574969347774</v>
       </c>
       <c r="G31">
-        <v>0.0201277829337215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03650286375502652</v>
+      </c>
+      <c r="H31">
+        <v>-0.05114616846608432</v>
+      </c>
+      <c r="I31">
+        <v>-0.01741813886979372</v>
+      </c>
+      <c r="J31">
+        <v>-0.01194725750368149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06731374019806444</v>
+        <v>0.04824247875525027</v>
       </c>
       <c r="C32">
-        <v>0.01678967316744812</v>
+        <v>-0.04141535773316944</v>
       </c>
       <c r="D32">
-        <v>-0.002440749041078242</v>
+        <v>0.01714263057487943</v>
       </c>
       <c r="E32">
-        <v>-0.117524960999495</v>
+        <v>-0.09677979443305132</v>
       </c>
       <c r="F32">
-        <v>-0.03279741065505049</v>
+        <v>-0.04661084011354669</v>
       </c>
       <c r="G32">
-        <v>0.03223595695282604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0172853177042977</v>
+      </c>
+      <c r="H32">
+        <v>-0.05896610083530909</v>
+      </c>
+      <c r="I32">
+        <v>-0.02875689730271687</v>
+      </c>
+      <c r="J32">
+        <v>0.0173375759653795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06944543634491278</v>
+        <v>0.05967024197576717</v>
       </c>
       <c r="C33">
-        <v>0.02232116024423756</v>
+        <v>-0.03888277038121699</v>
       </c>
       <c r="D33">
-        <v>-0.0009675145524870333</v>
+        <v>0.003214598635041381</v>
       </c>
       <c r="E33">
-        <v>-0.07882857054282366</v>
+        <v>-0.08770758784850344</v>
       </c>
       <c r="F33">
-        <v>0.02510348755448526</v>
+        <v>-0.01825853053638267</v>
       </c>
       <c r="G33">
-        <v>0.02260647474782987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0138514404915067</v>
+      </c>
+      <c r="H33">
+        <v>-0.05239387602174293</v>
+      </c>
+      <c r="I33">
+        <v>0.01084231167596104</v>
+      </c>
+      <c r="J33">
+        <v>-0.004691056196970077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04772289621402137</v>
+        <v>0.0427476092364252</v>
       </c>
       <c r="C34">
-        <v>0.0094204188259139</v>
+        <v>-0.020794346253829</v>
       </c>
       <c r="D34">
-        <v>-0.01116210897735288</v>
+        <v>0.0074655166513508</v>
       </c>
       <c r="E34">
-        <v>-0.02544073171863107</v>
+        <v>-0.038590881090134</v>
       </c>
       <c r="F34">
-        <v>-0.006750605620000465</v>
+        <v>-0.01077972808482015</v>
       </c>
       <c r="G34">
-        <v>0.01128214653281574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.002759152727992686</v>
+      </c>
+      <c r="H34">
+        <v>-0.02242820824580824</v>
+      </c>
+      <c r="I34">
+        <v>0.00878257153148432</v>
+      </c>
+      <c r="J34">
+        <v>0.008499397406033303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01147795612866899</v>
+        <v>0.0132840661842813</v>
       </c>
       <c r="C36">
-        <v>-0.01182076627518555</v>
+        <v>0.001160429525248482</v>
       </c>
       <c r="D36">
-        <v>0.003288179880619122</v>
+        <v>0.006032653231291898</v>
       </c>
       <c r="E36">
-        <v>-0.02866104317328497</v>
+        <v>-0.02985771829488038</v>
       </c>
       <c r="F36">
-        <v>0.009332155244098814</v>
+        <v>-0.01513063454466648</v>
       </c>
       <c r="G36">
-        <v>0.01542597822606309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01557169026462098</v>
+      </c>
+      <c r="H36">
+        <v>-0.03500419937137409</v>
+      </c>
+      <c r="I36">
+        <v>-0.008895484449135514</v>
+      </c>
+      <c r="J36">
+        <v>-0.001669898450221182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05484353065644407</v>
+        <v>0.03051597671187799</v>
       </c>
       <c r="C38">
-        <v>0.001315593090868231</v>
+        <v>-0.007125769438827297</v>
       </c>
       <c r="D38">
-        <v>0.01791431526809668</v>
+        <v>0.006444198176954893</v>
       </c>
       <c r="E38">
-        <v>-0.03681424154841217</v>
+        <v>-0.04556761256700093</v>
       </c>
       <c r="F38">
-        <v>0.003500791224438124</v>
+        <v>-0.02427264538792183</v>
       </c>
       <c r="G38">
-        <v>0.02817712755900837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01669331013621189</v>
+      </c>
+      <c r="H38">
+        <v>-0.01224227047175415</v>
+      </c>
+      <c r="I38">
+        <v>-0.008228680484143436</v>
+      </c>
+      <c r="J38">
+        <v>0.01680085732940846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07664842614604322</v>
+        <v>0.06285536260766426</v>
       </c>
       <c r="C39">
-        <v>0.00535900813589057</v>
+        <v>-0.02842513162448997</v>
       </c>
       <c r="D39">
-        <v>-0.006308875338726143</v>
+        <v>0.01837323405520584</v>
       </c>
       <c r="E39">
-        <v>-0.05120041962820584</v>
+        <v>-0.06352192188415406</v>
       </c>
       <c r="F39">
-        <v>0.01145854173410294</v>
+        <v>-0.005765585528410965</v>
       </c>
       <c r="G39">
-        <v>-0.007471026193072908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.006302468165664152</v>
+      </c>
+      <c r="H39">
+        <v>-0.01977061450244463</v>
+      </c>
+      <c r="I39">
+        <v>0.023886731010935</v>
+      </c>
+      <c r="J39">
+        <v>0.01067949568726744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07285893150135056</v>
+        <v>0.05653935302172928</v>
       </c>
       <c r="C40">
-        <v>0.02525875163356222</v>
+        <v>-0.03252572291547834</v>
       </c>
       <c r="D40">
-        <v>-0.01432559248921429</v>
+        <v>0.0190120621175887</v>
       </c>
       <c r="E40">
-        <v>-0.1145816507614862</v>
+        <v>-0.1102926195409932</v>
       </c>
       <c r="F40">
-        <v>0.01252357926097306</v>
+        <v>-0.009996514127120317</v>
       </c>
       <c r="G40">
-        <v>0.08332733758941929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.006034323258776331</v>
+      </c>
+      <c r="H40">
+        <v>-0.08144225821103446</v>
+      </c>
+      <c r="I40">
+        <v>-0.0212127154243409</v>
+      </c>
+      <c r="J40">
+        <v>-0.007677575527588213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003904347098694756</v>
+        <v>0.0008971394870733132</v>
       </c>
       <c r="C41">
-        <v>0.007417062089793734</v>
+        <v>-0.009272867483609344</v>
       </c>
       <c r="D41">
-        <v>0.01228713678898057</v>
+        <v>0.003632066346867131</v>
       </c>
       <c r="E41">
-        <v>-0.01939485025210868</v>
+        <v>-0.01859075750403762</v>
       </c>
       <c r="F41">
-        <v>0.02418938812524777</v>
+        <v>-0.009763892292733769</v>
       </c>
       <c r="G41">
-        <v>0.02825273978248112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02900918074126695</v>
+      </c>
+      <c r="H41">
+        <v>-0.04071636680455028</v>
+      </c>
+      <c r="I41">
+        <v>-0.02125205079650614</v>
+      </c>
+      <c r="J41">
+        <v>-0.02370057348142058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1476857986999043</v>
+        <v>0.249246765530977</v>
       </c>
       <c r="C42">
-        <v>0.1687407397210501</v>
+        <v>-0.1236623635421924</v>
       </c>
       <c r="D42">
-        <v>-0.9228552279088119</v>
+        <v>-0.914447813873023</v>
       </c>
       <c r="E42">
-        <v>0.1266237765514232</v>
+        <v>0.1154458485130837</v>
       </c>
       <c r="F42">
-        <v>-0.01145028994015357</v>
+        <v>0.2012171583590328</v>
       </c>
       <c r="G42">
-        <v>-0.1533316171281073</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.005030819141550516</v>
+      </c>
+      <c r="H42">
+        <v>0.01454552471979621</v>
+      </c>
+      <c r="I42">
+        <v>-0.03775566700322124</v>
+      </c>
+      <c r="J42">
+        <v>-0.03671443834024347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008698805699600487</v>
+        <v>0.00259933914501396</v>
       </c>
       <c r="C43">
-        <v>0.009476882796356374</v>
+        <v>-0.01188054157833341</v>
       </c>
       <c r="D43">
-        <v>0.01362529583675744</v>
+        <v>0.004044467921382674</v>
       </c>
       <c r="E43">
-        <v>-0.03624187682258825</v>
+        <v>-0.03042501378393635</v>
       </c>
       <c r="F43">
-        <v>-0.005890023410785613</v>
+        <v>-0.0106101311253105</v>
       </c>
       <c r="G43">
-        <v>0.02337654730994233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006465727502260308</v>
+      </c>
+      <c r="H43">
+        <v>-0.03749389823821291</v>
+      </c>
+      <c r="I43">
+        <v>-0.01275516982228308</v>
+      </c>
+      <c r="J43">
+        <v>-0.01685533153878688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04590562338355913</v>
+        <v>0.02974529323008332</v>
       </c>
       <c r="C44">
-        <v>0.02899459354027395</v>
+        <v>-0.03101378967558284</v>
       </c>
       <c r="D44">
-        <v>-0.007289337194888972</v>
+        <v>-0.002446104496136681</v>
       </c>
       <c r="E44">
-        <v>-0.1172452629352649</v>
+        <v>-0.1164790496917592</v>
       </c>
       <c r="F44">
-        <v>0.04209556875993192</v>
+        <v>-0.04382476877359835</v>
       </c>
       <c r="G44">
-        <v>0.1186740362329752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02395500239957925</v>
+      </c>
+      <c r="H44">
+        <v>-0.1163784917915035</v>
+      </c>
+      <c r="I44">
+        <v>-0.04056216446768948</v>
+      </c>
+      <c r="J44">
+        <v>0.0006456636356714866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02236422514395099</v>
+        <v>0.021018870434117</v>
       </c>
       <c r="C46">
-        <v>0.01098528209023843</v>
+        <v>-0.02350102671965641</v>
       </c>
       <c r="D46">
-        <v>0.02128915907422723</v>
+        <v>0.0159754643305907</v>
       </c>
       <c r="E46">
-        <v>-0.02857496280534002</v>
+        <v>-0.04595965792182542</v>
       </c>
       <c r="F46">
-        <v>0.02556567893028356</v>
+        <v>-0.01716416710486189</v>
       </c>
       <c r="G46">
-        <v>0.04205643032196318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01677897265664453</v>
+      </c>
+      <c r="H46">
+        <v>-0.06387761218931358</v>
+      </c>
+      <c r="I46">
+        <v>-0.01036198345509748</v>
+      </c>
+      <c r="J46">
+        <v>-0.03083766383425863</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08009774137993922</v>
+        <v>0.08782563787884279</v>
       </c>
       <c r="C47">
-        <v>0.001860774444762584</v>
+        <v>-0.0121870437014332</v>
       </c>
       <c r="D47">
-        <v>0.01650180683804185</v>
+        <v>0.02165639125210699</v>
       </c>
       <c r="E47">
-        <v>0.006752525591562093</v>
+        <v>-0.004227930637917592</v>
       </c>
       <c r="F47">
-        <v>0.01360370533901373</v>
+        <v>0.001228146247857473</v>
       </c>
       <c r="G47">
-        <v>0.04518526275993093</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03382604075419583</v>
+      </c>
+      <c r="H47">
+        <v>-0.0698191855167638</v>
+      </c>
+      <c r="I47">
+        <v>-0.02164749513920616</v>
+      </c>
+      <c r="J47">
+        <v>-0.02326637609927637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01392217900880273</v>
+        <v>0.01395572218349234</v>
       </c>
       <c r="C48">
-        <v>0.01263615112669058</v>
+        <v>-0.01666956514528196</v>
       </c>
       <c r="D48">
-        <v>0.01053476671313127</v>
+        <v>0.005159986300435258</v>
       </c>
       <c r="E48">
-        <v>-0.04015780320063189</v>
+        <v>-0.04053260831746289</v>
       </c>
       <c r="F48">
-        <v>0.0131844970868042</v>
+        <v>-0.01641303380641675</v>
       </c>
       <c r="G48">
-        <v>0.01079299021926224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.008268067533716471</v>
+      </c>
+      <c r="H48">
+        <v>-0.02405696549894422</v>
+      </c>
+      <c r="I48">
+        <v>-0.01036729395618622</v>
+      </c>
+      <c r="J48">
+        <v>-0.0185487505103196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07870010798941088</v>
+        <v>0.08094624013627742</v>
       </c>
       <c r="C50">
-        <v>0.02702590392156096</v>
+        <v>-0.03422858462414424</v>
       </c>
       <c r="D50">
-        <v>0.01756977964466788</v>
+        <v>0.01718249471405024</v>
       </c>
       <c r="E50">
-        <v>0.01709406670211907</v>
+        <v>-0.007843465875457641</v>
       </c>
       <c r="F50">
-        <v>0.01688835661116237</v>
+        <v>3.465968302978579e-05</v>
       </c>
       <c r="G50">
-        <v>0.02386098229884892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007850111344320562</v>
+      </c>
+      <c r="H50">
+        <v>-0.05200192754710075</v>
+      </c>
+      <c r="I50">
+        <v>-0.02310740006008061</v>
+      </c>
+      <c r="J50">
+        <v>0.01887386225864303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06743068132527226</v>
+        <v>0.04787903233083559</v>
       </c>
       <c r="C51">
-        <v>-0.02669393727485264</v>
+        <v>0.007887188120688962</v>
       </c>
       <c r="D51">
-        <v>-0.0002859484545775719</v>
+        <v>0.005641185526703346</v>
       </c>
       <c r="E51">
-        <v>-0.06277706288997756</v>
+        <v>-0.09666630987080747</v>
       </c>
       <c r="F51">
-        <v>0.04054455552348133</v>
+        <v>-0.009887198967949869</v>
       </c>
       <c r="G51">
-        <v>0.007332668780167305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03624795770142151</v>
+      </c>
+      <c r="H51">
+        <v>-0.05884485290957677</v>
+      </c>
+      <c r="I51">
+        <v>-0.04584329868912321</v>
+      </c>
+      <c r="J51">
+        <v>-0.01851132886890137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1469097220856366</v>
+        <v>0.1290559185522339</v>
       </c>
       <c r="C53">
-        <v>0.003441483718656655</v>
+        <v>-0.03403547737897692</v>
       </c>
       <c r="D53">
-        <v>0.04284441974204162</v>
+        <v>0.04910523937863985</v>
       </c>
       <c r="E53">
-        <v>0.01511905176588698</v>
+        <v>0.02179839339621647</v>
       </c>
       <c r="F53">
-        <v>0.01038949179263716</v>
+        <v>0.01240258568438267</v>
       </c>
       <c r="G53">
-        <v>0.02049220751271656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03210106354769381</v>
+      </c>
+      <c r="H53">
+        <v>-0.01461826650459527</v>
+      </c>
+      <c r="I53">
+        <v>-0.002338206862015458</v>
+      </c>
+      <c r="J53">
+        <v>-0.0808966895851138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02178731992583939</v>
+        <v>0.02149146046103189</v>
       </c>
       <c r="C54">
-        <v>-0.01001741200112076</v>
+        <v>-0.001799747490010723</v>
       </c>
       <c r="D54">
-        <v>0.02223317640486971</v>
+        <v>0.02462000809168906</v>
       </c>
       <c r="E54">
-        <v>-0.04079933803955714</v>
+        <v>-0.03914920106287745</v>
       </c>
       <c r="F54">
-        <v>0.04103225846657524</v>
+        <v>-0.02738111163501506</v>
       </c>
       <c r="G54">
-        <v>0.05734447659261174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03508581250234637</v>
+      </c>
+      <c r="H54">
+        <v>-0.0700709764409605</v>
+      </c>
+      <c r="I54">
+        <v>-0.0432194958589566</v>
+      </c>
+      <c r="J54">
+        <v>-0.01728639010963077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09753532276790433</v>
+        <v>0.1023908717809452</v>
       </c>
       <c r="C55">
-        <v>-0.0051849672858446</v>
+        <v>-0.01556515827030199</v>
       </c>
       <c r="D55">
-        <v>0.03443195223518368</v>
+        <v>0.032189860344165</v>
       </c>
       <c r="E55">
-        <v>-0.01345728100232391</v>
+        <v>0.02246240580209199</v>
       </c>
       <c r="F55">
-        <v>-0.01769738619160403</v>
+        <v>-0.02876872387473339</v>
       </c>
       <c r="G55">
-        <v>0.01210362318167148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0005117618489904199</v>
+      </c>
+      <c r="H55">
+        <v>-0.02946408141498863</v>
+      </c>
+      <c r="I55">
+        <v>0.01191768761071821</v>
+      </c>
+      <c r="J55">
+        <v>-0.0711477512813683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1800499240972448</v>
+        <v>0.1685079970223915</v>
       </c>
       <c r="C56">
-        <v>-0.02683142380119304</v>
+        <v>-0.01480186234545684</v>
       </c>
       <c r="D56">
-        <v>0.08774442484372255</v>
+        <v>0.09162160395435154</v>
       </c>
       <c r="E56">
-        <v>0.05867727018741138</v>
+        <v>0.07311636145045264</v>
       </c>
       <c r="F56">
-        <v>-0.0438208848931962</v>
+        <v>0.005615249414889906</v>
       </c>
       <c r="G56">
-        <v>-0.004774853569232609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01230247621132038</v>
+      </c>
+      <c r="H56">
+        <v>0.03328123600101232</v>
+      </c>
+      <c r="I56">
+        <v>0.04453722689072921</v>
+      </c>
+      <c r="J56">
+        <v>-0.08712040115059469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09435220270853135</v>
+        <v>0.07390449701579796</v>
       </c>
       <c r="C57">
-        <v>0.01609066332256573</v>
+        <v>-0.02196733239798259</v>
       </c>
       <c r="D57">
-        <v>0.01596848999408135</v>
+        <v>0.009694090551823025</v>
       </c>
       <c r="E57">
-        <v>-0.07336413417403383</v>
+        <v>-0.07842333358455368</v>
       </c>
       <c r="F57">
-        <v>-0.006124176533994915</v>
+        <v>-0.01520477972704662</v>
       </c>
       <c r="G57">
-        <v>0.04011100501412846</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.004516931196042435</v>
+      </c>
+      <c r="H57">
+        <v>-0.04838940906248463</v>
+      </c>
+      <c r="I57">
+        <v>0.01648167215208813</v>
+      </c>
+      <c r="J57">
+        <v>-0.01700969040288572</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1628586578480768</v>
+        <v>0.1986305052822517</v>
       </c>
       <c r="C58">
-        <v>-0.002078416156297468</v>
+        <v>-0.03247975108793705</v>
       </c>
       <c r="D58">
-        <v>-0.0670334690821863</v>
+        <v>-0.0146289706518995</v>
       </c>
       <c r="E58">
-        <v>-0.09429347852480439</v>
+        <v>-0.1582523698622456</v>
       </c>
       <c r="F58">
-        <v>-0.09963015979739888</v>
+        <v>-0.03323685191486327</v>
       </c>
       <c r="G58">
-        <v>0.2422279323881321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1918641001053872</v>
+      </c>
+      <c r="H58">
+        <v>-0.3113319205053311</v>
+      </c>
+      <c r="I58">
+        <v>-0.1492987966870342</v>
+      </c>
+      <c r="J58">
+        <v>0.3150002156512607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01483000579088649</v>
+        <v>0.01785568308018171</v>
       </c>
       <c r="C59">
-        <v>-0.2045426587847819</v>
+        <v>0.1993962570769894</v>
       </c>
       <c r="D59">
-        <v>0.01899122426348994</v>
+        <v>0.01892200643808707</v>
       </c>
       <c r="E59">
-        <v>-0.03602865627561527</v>
+        <v>-0.05347194860349985</v>
       </c>
       <c r="F59">
-        <v>-0.002841939292501977</v>
+        <v>0.01314262418934877</v>
       </c>
       <c r="G59">
-        <v>-0.04169537434583487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001839134486712588</v>
+      </c>
+      <c r="H59">
+        <v>0.02989825145903137</v>
+      </c>
+      <c r="I59">
+        <v>-0.07978603677133667</v>
+      </c>
+      <c r="J59">
+        <v>-0.02724370760114665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1742615616977419</v>
+        <v>0.1794000439219093</v>
       </c>
       <c r="C60">
-        <v>-0.1314751103551629</v>
+        <v>0.07117316011090415</v>
       </c>
       <c r="D60">
-        <v>0.01618802722578773</v>
+        <v>0.02627104841322441</v>
       </c>
       <c r="E60">
-        <v>-0.1894357949606502</v>
+        <v>-0.2070238383523398</v>
       </c>
       <c r="F60">
-        <v>0.0204134381396309</v>
+        <v>0.02903803440531305</v>
       </c>
       <c r="G60">
-        <v>-0.1578905418320265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05755321889695784</v>
+      </c>
+      <c r="H60">
+        <v>0.2313971586782699</v>
+      </c>
+      <c r="I60">
+        <v>0.1117741814924874</v>
+      </c>
+      <c r="J60">
+        <v>0.02449244292354694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04962583939459646</v>
+        <v>0.03869332687498699</v>
       </c>
       <c r="C61">
-        <v>0.0006576428567373734</v>
+        <v>-0.01522605971739453</v>
       </c>
       <c r="D61">
-        <v>-0.01220056841182686</v>
+        <v>0.0006563980028554119</v>
       </c>
       <c r="E61">
-        <v>-0.04595154129701168</v>
+        <v>-0.04838540034591616</v>
       </c>
       <c r="F61">
-        <v>0.009004976060031299</v>
+        <v>-0.008064578005323083</v>
       </c>
       <c r="G61">
-        <v>-0.02442212836037422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.003795839393199722</v>
+      </c>
+      <c r="H61">
+        <v>-0.004213426131714581</v>
+      </c>
+      <c r="I61">
+        <v>0.02603618987218974</v>
+      </c>
+      <c r="J61">
+        <v>0.02611087399267619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03793466896172993</v>
+        <v>0.02975648231339905</v>
       </c>
       <c r="C63">
-        <v>-0.01266003402676704</v>
+        <v>-0.009110512547682748</v>
       </c>
       <c r="D63">
-        <v>0.008956931405161295</v>
+        <v>0.008820168037928891</v>
       </c>
       <c r="E63">
-        <v>-0.04454630609831376</v>
+        <v>-0.03666533808907035</v>
       </c>
       <c r="F63">
-        <v>0.006212952842134666</v>
+        <v>-0.01423315750485784</v>
       </c>
       <c r="G63">
-        <v>0.0202872240255705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.006809820598028603</v>
+      </c>
+      <c r="H63">
+        <v>-0.04392577647054526</v>
+      </c>
+      <c r="I63">
+        <v>-0.01904600303764683</v>
+      </c>
+      <c r="J63">
+        <v>-0.05321192814164607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09159445398025662</v>
+        <v>0.0670635708986525</v>
       </c>
       <c r="C64">
-        <v>0.009552115706606822</v>
+        <v>-0.03267095927087188</v>
       </c>
       <c r="D64">
-        <v>0.05037848846969851</v>
+        <v>0.03480010243084677</v>
       </c>
       <c r="E64">
-        <v>-0.1006778290156191</v>
+        <v>-0.06481881041672242</v>
       </c>
       <c r="F64">
-        <v>0.09240566432454159</v>
+        <v>-0.06080951443525824</v>
       </c>
       <c r="G64">
-        <v>-0.04543296888779497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07117233266216935</v>
+      </c>
+      <c r="H64">
+        <v>0.01545140891757749</v>
+      </c>
+      <c r="I64">
+        <v>0.01110320462330093</v>
+      </c>
+      <c r="J64">
+        <v>-0.08172833232836389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01086527539378769</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00414674258464006</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0009586666808578499</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003943374977153867</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002019934777718439</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01300601147901367</v>
+      </c>
+      <c r="H65">
+        <v>-0.002160540959342498</v>
+      </c>
+      <c r="I65">
+        <v>-0.0009551632911485767</v>
+      </c>
+      <c r="J65">
+        <v>0.001076793889407025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1024105817793391</v>
+        <v>0.0742759245022557</v>
       </c>
       <c r="C66">
-        <v>0.007140606814867102</v>
+        <v>-0.03877574375261569</v>
       </c>
       <c r="D66">
-        <v>0.02741810592185215</v>
+        <v>0.04100809341743417</v>
       </c>
       <c r="E66">
-        <v>-0.09365360520864738</v>
+        <v>-0.08848902004676516</v>
       </c>
       <c r="F66">
-        <v>0.02209687485117574</v>
+        <v>-0.008368796921776367</v>
       </c>
       <c r="G66">
-        <v>-0.001622718712583015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.007461176293089573</v>
+      </c>
+      <c r="H66">
+        <v>-0.01681594969148833</v>
+      </c>
+      <c r="I66">
+        <v>0.04732554015902558</v>
+      </c>
+      <c r="J66">
+        <v>-0.001871130289464249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06059059963261249</v>
+        <v>0.04025305345121166</v>
       </c>
       <c r="C67">
-        <v>-0.02072792777140583</v>
+        <v>0.009593840293099249</v>
       </c>
       <c r="D67">
-        <v>0.007046358724887571</v>
+        <v>0.0048281746257009</v>
       </c>
       <c r="E67">
-        <v>-0.03060910982766689</v>
+        <v>-0.04142135556102065</v>
       </c>
       <c r="F67">
-        <v>0.003075602136166047</v>
+        <v>-0.01012060935320605</v>
       </c>
       <c r="G67">
-        <v>0.02826456860721267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0231970708872764</v>
+      </c>
+      <c r="H67">
+        <v>0.0007335582519277152</v>
+      </c>
+      <c r="I67">
+        <v>0.03062346698190598</v>
+      </c>
+      <c r="J67">
+        <v>0.0188546164252667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01442274746540139</v>
+        <v>0.02667192938557645</v>
       </c>
       <c r="C68">
-        <v>-0.2445839537714049</v>
+        <v>0.2379549057163631</v>
       </c>
       <c r="D68">
-        <v>-0.003838521307593793</v>
+        <v>0.00837995546145112</v>
       </c>
       <c r="E68">
-        <v>-0.02112607501442052</v>
+        <v>-0.03776855790870617</v>
       </c>
       <c r="F68">
-        <v>-0.01816734349763576</v>
+        <v>-0.0003647913633969554</v>
       </c>
       <c r="G68">
-        <v>-0.03151787980670544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01515516825954633</v>
+      </c>
+      <c r="H68">
+        <v>0.03596125926407911</v>
+      </c>
+      <c r="I68">
+        <v>-0.1651678565998982</v>
+      </c>
+      <c r="J68">
+        <v>-0.06347478466943143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06496331424337121</v>
+        <v>0.06788543857965131</v>
       </c>
       <c r="C69">
-        <v>0.004277489457401647</v>
+        <v>-0.01072920741659697</v>
       </c>
       <c r="D69">
-        <v>0.02587943191954935</v>
+        <v>0.02829589791206153</v>
       </c>
       <c r="E69">
-        <v>-0.0004174731507611594</v>
+        <v>-0.01295536752323844</v>
       </c>
       <c r="F69">
-        <v>0.007986498912576981</v>
+        <v>0.005757530984249767</v>
       </c>
       <c r="G69">
-        <v>0.014669193418488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02537548089579743</v>
+      </c>
+      <c r="H69">
+        <v>-0.04857842505405554</v>
+      </c>
+      <c r="I69">
+        <v>0.001245017474071296</v>
+      </c>
+      <c r="J69">
+        <v>-0.01304051046691547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.005909782584504686</v>
+        <v>0.03332216714362551</v>
       </c>
       <c r="C71">
-        <v>-0.2375563177160771</v>
+        <v>0.2391724723871043</v>
       </c>
       <c r="D71">
-        <v>-0.007934973539250812</v>
+        <v>-0.01219146224563651</v>
       </c>
       <c r="E71">
-        <v>-0.0433462129750472</v>
+        <v>-0.05894477151971094</v>
       </c>
       <c r="F71">
-        <v>-0.01370894053250176</v>
+        <v>0.02622031543274185</v>
       </c>
       <c r="G71">
-        <v>-0.1218836283630004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.003881636358453765</v>
+      </c>
+      <c r="H71">
+        <v>0.04961486041943875</v>
+      </c>
+      <c r="I71">
+        <v>-0.1594888209939304</v>
+      </c>
+      <c r="J71">
+        <v>-0.01302170087322882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.10476459038863</v>
+        <v>0.1130653914848988</v>
       </c>
       <c r="C72">
-        <v>-0.02725657349938719</v>
+        <v>0.01021613937240706</v>
       </c>
       <c r="D72">
-        <v>0.04306316407073194</v>
+        <v>0.06117486119580859</v>
       </c>
       <c r="E72">
-        <v>-0.06439294793899647</v>
+        <v>-0.08009051087224094</v>
       </c>
       <c r="F72">
-        <v>-0.003696556318370354</v>
+        <v>-0.02493535485818044</v>
       </c>
       <c r="G72">
-        <v>0.02981279865618053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03109879197692337</v>
+      </c>
+      <c r="H72">
+        <v>-0.001535986014456723</v>
+      </c>
+      <c r="I72">
+        <v>-0.01170193851231105</v>
+      </c>
+      <c r="J72">
+        <v>0.04948390348994046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.268091006237156</v>
+        <v>0.2728370231785366</v>
       </c>
       <c r="C73">
-        <v>-0.2290091404391862</v>
+        <v>0.1459917448537536</v>
       </c>
       <c r="D73">
-        <v>-0.02602519669298461</v>
+        <v>0.003697850457650594</v>
       </c>
       <c r="E73">
-        <v>-0.2787985253783644</v>
+        <v>-0.3194343457369945</v>
       </c>
       <c r="F73">
-        <v>-0.0307199589838623</v>
+        <v>0.06272231632223826</v>
       </c>
       <c r="G73">
-        <v>-0.3961881045460345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1389433709281563</v>
+      </c>
+      <c r="H73">
+        <v>0.4222466670155369</v>
+      </c>
+      <c r="I73">
+        <v>0.2864389355945889</v>
+      </c>
+      <c r="J73">
+        <v>0.2720639495076744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1558588852577618</v>
+        <v>0.1523493799844734</v>
       </c>
       <c r="C74">
-        <v>-0.01547821631797132</v>
+        <v>-0.009578960266648825</v>
       </c>
       <c r="D74">
-        <v>0.05203913989883765</v>
+        <v>0.04916038007496163</v>
       </c>
       <c r="E74">
-        <v>-0.003539035092544514</v>
+        <v>0.03059921096458245</v>
       </c>
       <c r="F74">
-        <v>-0.04128412032253063</v>
+        <v>0.003821196372858768</v>
       </c>
       <c r="G74">
-        <v>-0.01777693206877853</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01021182199497487</v>
+      </c>
+      <c r="H74">
+        <v>0.02318217187717197</v>
+      </c>
+      <c r="I74">
+        <v>0.04363915221796463</v>
+      </c>
+      <c r="J74">
+        <v>-0.09090121118132136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2355356676373342</v>
+        <v>0.2440798110961702</v>
       </c>
       <c r="C75">
-        <v>-0.02052211118271126</v>
+        <v>-0.01839764124015915</v>
       </c>
       <c r="D75">
-        <v>0.06818157096110894</v>
+        <v>0.1037045559112609</v>
       </c>
       <c r="E75">
-        <v>0.1029885605485741</v>
+        <v>0.1161669976581931</v>
       </c>
       <c r="F75">
-        <v>-0.02569037028651635</v>
+        <v>0.03329566696778877</v>
       </c>
       <c r="G75">
-        <v>0.01197989508431928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01900973811247727</v>
+      </c>
+      <c r="H75">
+        <v>0.01188804654036252</v>
+      </c>
+      <c r="I75">
+        <v>0.02564433037121449</v>
+      </c>
+      <c r="J75">
+        <v>-0.1752169483225951</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2400780673565258</v>
+        <v>0.2584551413562887</v>
       </c>
       <c r="C76">
-        <v>-0.02223950861443892</v>
+        <v>-0.009515897346095042</v>
       </c>
       <c r="D76">
-        <v>0.1107250306408554</v>
+        <v>0.1303312531222178</v>
       </c>
       <c r="E76">
-        <v>0.08444227111032929</v>
+        <v>0.1427582213936333</v>
       </c>
       <c r="F76">
-        <v>-0.03434164285526254</v>
+        <v>0.00573140328563112</v>
       </c>
       <c r="G76">
-        <v>-0.009239959460105279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01416039513537352</v>
+      </c>
+      <c r="H76">
+        <v>0.01201954100717636</v>
+      </c>
+      <c r="I76">
+        <v>0.09209186891223919</v>
+      </c>
+      <c r="J76">
+        <v>-0.1665348273716391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1268882911395274</v>
+        <v>0.1325660012451249</v>
       </c>
       <c r="C77">
-        <v>0.004345972428132944</v>
+        <v>-0.04092162388963427</v>
       </c>
       <c r="D77">
-        <v>-0.07374086491965257</v>
+        <v>-0.05459942990752469</v>
       </c>
       <c r="E77">
-        <v>-0.164834601867533</v>
+        <v>-0.1658497771047949</v>
       </c>
       <c r="F77">
-        <v>-0.02040111344192063</v>
+        <v>-0.05548559159059387</v>
       </c>
       <c r="G77">
-        <v>0.1332193451757198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03849041565459625</v>
+      </c>
+      <c r="H77">
+        <v>-0.1551060817174046</v>
+      </c>
+      <c r="I77">
+        <v>-0.134480431984609</v>
+      </c>
+      <c r="J77">
+        <v>-0.110119624841364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09567824496828077</v>
+        <v>0.0911401862732585</v>
       </c>
       <c r="C78">
-        <v>0.02268669002940285</v>
+        <v>-0.049641631357608</v>
       </c>
       <c r="D78">
-        <v>-0.02569945584153734</v>
+        <v>-0.002717451126158788</v>
       </c>
       <c r="E78">
-        <v>-0.07510366334979451</v>
+        <v>-0.08573059198811241</v>
       </c>
       <c r="F78">
-        <v>-0.005406700721356262</v>
+        <v>-0.04046985366184593</v>
       </c>
       <c r="G78">
-        <v>-0.02572906703218466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.009678457053503118</v>
+      </c>
+      <c r="H78">
+        <v>-0.01315898198654598</v>
+      </c>
+      <c r="I78">
+        <v>-0.02991682617156422</v>
+      </c>
+      <c r="J78">
+        <v>-0.0279362658103968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07517127934508526</v>
+        <v>0.09412259550646944</v>
       </c>
       <c r="C80">
-        <v>-0.01607170102121872</v>
+        <v>0.08208449257020511</v>
       </c>
       <c r="D80">
-        <v>-0.009997184081085037</v>
+        <v>-0.172563103352864</v>
       </c>
       <c r="E80">
-        <v>0.02071709355721328</v>
+        <v>0.2104204283046366</v>
       </c>
       <c r="F80">
-        <v>-0.05669002707554965</v>
+        <v>-0.9255436318886132</v>
       </c>
       <c r="G80">
-        <v>0.2904678939623735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04462221582059757</v>
+      </c>
+      <c r="H80">
+        <v>0.1614183560061392</v>
+      </c>
+      <c r="I80">
+        <v>0.02650960044813275</v>
+      </c>
+      <c r="J80">
+        <v>0.09374709956860941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1634414170511918</v>
+        <v>0.1727389770012324</v>
       </c>
       <c r="C81">
-        <v>-0.01422289851726005</v>
+        <v>-0.007028892267831189</v>
       </c>
       <c r="D81">
-        <v>0.06276055242396694</v>
+        <v>0.0904089900472527</v>
       </c>
       <c r="E81">
-        <v>0.1179118815183233</v>
+        <v>0.1396151436977866</v>
       </c>
       <c r="F81">
-        <v>-0.05255935514016342</v>
+        <v>0.0357379927114958</v>
       </c>
       <c r="G81">
-        <v>0.001310906152229153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01031084488644345</v>
+      </c>
+      <c r="H81">
+        <v>0.009841967901329714</v>
+      </c>
+      <c r="I81">
+        <v>0.0329870495260242</v>
+      </c>
+      <c r="J81">
+        <v>-0.1190039235297771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08102949785376516</v>
+        <v>0.0655710583958426</v>
       </c>
       <c r="C83">
-        <v>0.01986169627827551</v>
+        <v>-0.03391104903547923</v>
       </c>
       <c r="D83">
-        <v>-0.09469391507280776</v>
+        <v>-0.04262333875145273</v>
       </c>
       <c r="E83">
-        <v>-0.05083625916810577</v>
+        <v>-0.06414162075285834</v>
       </c>
       <c r="F83">
-        <v>0.06620912191202262</v>
+        <v>0.006822853706459998</v>
       </c>
       <c r="G83">
-        <v>0.0345294600847077</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04802306747318486</v>
+      </c>
+      <c r="H83">
+        <v>-0.04138124804304438</v>
+      </c>
+      <c r="I83">
+        <v>0.00387018803331795</v>
+      </c>
+      <c r="J83">
+        <v>-0.0885811417204934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2443772363472483</v>
+        <v>0.2549018069473427</v>
       </c>
       <c r="C85">
-        <v>0.03978997095575099</v>
+        <v>-0.05021927467580285</v>
       </c>
       <c r="D85">
-        <v>0.05715302181065883</v>
+        <v>0.08589733710980245</v>
       </c>
       <c r="E85">
-        <v>0.1093570206145393</v>
+        <v>0.1400004316317974</v>
       </c>
       <c r="F85">
-        <v>-0.01444847946548314</v>
+        <v>-0.001620147141254201</v>
       </c>
       <c r="G85">
-        <v>0.03217372773256135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02178064670305432</v>
+      </c>
+      <c r="H85">
+        <v>-0.0236137896424494</v>
+      </c>
+      <c r="I85">
+        <v>0.04614292055717902</v>
+      </c>
+      <c r="J85">
+        <v>-0.2021189489692787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.0470200393653516</v>
+        <v>0.03128621775971816</v>
       </c>
       <c r="C86">
-        <v>0.02743810860093968</v>
+        <v>-0.04117817519032004</v>
       </c>
       <c r="D86">
-        <v>0.004166054203689045</v>
+        <v>0.004973509984072406</v>
       </c>
       <c r="E86">
-        <v>-0.04752421859526484</v>
+        <v>-0.05484918233620037</v>
       </c>
       <c r="F86">
-        <v>-0.01212182236773638</v>
+        <v>-0.03715751863885351</v>
       </c>
       <c r="G86">
-        <v>0.02210857111326533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.01009669645572658</v>
+      </c>
+      <c r="H86">
+        <v>-0.03745830857287158</v>
+      </c>
+      <c r="I86">
+        <v>-0.07255454950608753</v>
+      </c>
+      <c r="J86">
+        <v>0.01392297798945018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03131678144405615</v>
+        <v>0.03910223576768972</v>
       </c>
       <c r="C87">
-        <v>-0.05196971125898045</v>
+        <v>0.02471895825742998</v>
       </c>
       <c r="D87">
-        <v>0.008203218731613631</v>
+        <v>0.002329765730077063</v>
       </c>
       <c r="E87">
-        <v>-0.06076143665810842</v>
+        <v>-0.08755966464626272</v>
       </c>
       <c r="F87">
-        <v>0.01984696717028855</v>
+        <v>-0.02258954161885675</v>
       </c>
       <c r="G87">
-        <v>-0.1408440096249453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.01156648671311016</v>
+      </c>
+      <c r="H87">
+        <v>0.01689006779751201</v>
+      </c>
+      <c r="I87">
+        <v>-0.01818004589799221</v>
+      </c>
+      <c r="J87">
+        <v>0.09155674874025128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03752185800428711</v>
+        <v>0.02259657380762604</v>
       </c>
       <c r="C88">
-        <v>0.0193984497576666</v>
+        <v>-0.01652161395599949</v>
       </c>
       <c r="D88">
-        <v>0.007054915759728263</v>
+        <v>0.01144211070056638</v>
       </c>
       <c r="E88">
-        <v>-0.002127450868368384</v>
+        <v>-0.001803615493020384</v>
       </c>
       <c r="F88">
-        <v>-0.0007281658524002214</v>
+        <v>-0.02244519061226129</v>
       </c>
       <c r="G88">
-        <v>0.06806141552932626</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02966826382231891</v>
+      </c>
+      <c r="H88">
+        <v>-0.04648254439780242</v>
+      </c>
+      <c r="I88">
+        <v>0.007464479841959716</v>
+      </c>
+      <c r="J88">
+        <v>0.02523860198032498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03142469391254669</v>
+        <v>0.04003079434531245</v>
       </c>
       <c r="C89">
-        <v>-0.4330594137237503</v>
+        <v>0.4000304794447317</v>
       </c>
       <c r="D89">
-        <v>-0.09357273002196013</v>
+        <v>-0.03882559006340365</v>
       </c>
       <c r="E89">
-        <v>0.04470275100782327</v>
+        <v>-0.04348896155363582</v>
       </c>
       <c r="F89">
-        <v>0.02958765620933411</v>
+        <v>0.05188827397969944</v>
       </c>
       <c r="G89">
-        <v>0.03103908213639815</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06503788248828035</v>
+      </c>
+      <c r="H89">
+        <v>-0.01266593930093383</v>
+      </c>
+      <c r="I89">
+        <v>-0.2599078589150892</v>
+      </c>
+      <c r="J89">
+        <v>-0.1270417862679421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03077975054709558</v>
+        <v>0.02231330591569855</v>
       </c>
       <c r="C90">
-        <v>-0.3083631839515447</v>
+        <v>0.3327401746092877</v>
       </c>
       <c r="D90">
-        <v>-0.02044237075291413</v>
+        <v>-0.01872237343234888</v>
       </c>
       <c r="E90">
-        <v>-0.01393055315126605</v>
+        <v>-0.02583037170883726</v>
       </c>
       <c r="F90">
-        <v>-0.007056805151934567</v>
+        <v>-0.0005507770822807226</v>
       </c>
       <c r="G90">
-        <v>-0.0768071576194929</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01314812116467476</v>
+      </c>
+      <c r="H90">
+        <v>0.04415156154951069</v>
+      </c>
+      <c r="I90">
+        <v>-0.1871457849043185</v>
+      </c>
+      <c r="J90">
+        <v>-0.08572338764009095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3112205362234421</v>
+        <v>0.3185517798141667</v>
       </c>
       <c r="C91">
-        <v>0.008347727475436835</v>
+        <v>-0.03575937823374856</v>
       </c>
       <c r="D91">
-        <v>0.08351907281469055</v>
+        <v>0.1084312998372551</v>
       </c>
       <c r="E91">
-        <v>0.2566428376186747</v>
+        <v>0.2693024513637801</v>
       </c>
       <c r="F91">
-        <v>-0.08212577198792516</v>
+        <v>0.05610935137268969</v>
       </c>
       <c r="G91">
-        <v>0.1258985383806727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01292572781928226</v>
+      </c>
+      <c r="H91">
+        <v>0.007014056401970356</v>
+      </c>
+      <c r="I91">
+        <v>0.08349906028489866</v>
+      </c>
+      <c r="J91">
+        <v>-0.3528309279675895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04446701007895584</v>
+        <v>0.06042974852290459</v>
       </c>
       <c r="C92">
-        <v>-0.4487560920591748</v>
+        <v>0.4769790434056956</v>
       </c>
       <c r="D92">
-        <v>-0.1983356952355466</v>
+        <v>-0.06636607787984826</v>
       </c>
       <c r="E92">
-        <v>0.1278734489427122</v>
+        <v>0.1387766967752385</v>
       </c>
       <c r="F92">
-        <v>-0.06433817032063424</v>
+        <v>0.0240414040381418</v>
       </c>
       <c r="G92">
-        <v>0.5249158535870904</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04789362768019022</v>
+      </c>
+      <c r="H92">
+        <v>-0.5631646595752322</v>
+      </c>
+      <c r="I92">
+        <v>0.5915179607283025</v>
+      </c>
+      <c r="J92">
+        <v>0.1781049249624892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04422205461977903</v>
+        <v>0.02373192918089752</v>
       </c>
       <c r="C93">
-        <v>-0.3578006511081798</v>
+        <v>0.4060449238606196</v>
       </c>
       <c r="D93">
-        <v>-0.06827173097629022</v>
+        <v>-0.04579363865817722</v>
       </c>
       <c r="E93">
-        <v>0.06485794329586402</v>
+        <v>0.02771589662343944</v>
       </c>
       <c r="F93">
-        <v>-0.0146458331293729</v>
+        <v>0.02854800903001618</v>
       </c>
       <c r="G93">
-        <v>0.007358238804391989</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03883789970207392</v>
+      </c>
+      <c r="H93">
+        <v>0.0567062534456039</v>
+      </c>
+      <c r="I93">
+        <v>-0.1888503752798191</v>
+      </c>
+      <c r="J93">
+        <v>-0.1241760296714598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3073119782463722</v>
+        <v>0.3261612919066177</v>
       </c>
       <c r="C94">
-        <v>-0.005263610561516203</v>
+        <v>-0.01649792986119366</v>
       </c>
       <c r="D94">
-        <v>0.07432108282004879</v>
+        <v>0.1619367190026372</v>
       </c>
       <c r="E94">
-        <v>0.5247704196398223</v>
+        <v>0.4076513401213132</v>
       </c>
       <c r="F94">
-        <v>-0.3634542098983324</v>
+        <v>0.1121392794199793</v>
       </c>
       <c r="G94">
-        <v>-0.1083706011679464</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1953016085169216</v>
+      </c>
+      <c r="H94">
+        <v>-0.05081012755994738</v>
+      </c>
+      <c r="I94">
+        <v>-0.3995481507505108</v>
+      </c>
+      <c r="J94">
+        <v>0.5580928893366276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1878790075150892</v>
+        <v>0.1417657997138082</v>
       </c>
       <c r="C95">
-        <v>-0.04456434633885453</v>
+        <v>-0.05117672786610312</v>
       </c>
       <c r="D95">
-        <v>0.01491207047798138</v>
+        <v>0.03425839304228942</v>
       </c>
       <c r="E95">
-        <v>0.2756907251479695</v>
+        <v>-0.01377453217033686</v>
       </c>
       <c r="F95">
-        <v>0.8918273917770034</v>
+        <v>0.08074996337176171</v>
       </c>
       <c r="G95">
-        <v>0.02683105707703893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9230090589919695</v>
+      </c>
+      <c r="H95">
+        <v>0.06314751641557852</v>
+      </c>
+      <c r="I95">
+        <v>-0.04557470071449178</v>
+      </c>
+      <c r="J95">
+        <v>0.2476102090942108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2076282712950711</v>
+        <v>0.2073521150805084</v>
       </c>
       <c r="C98">
-        <v>-0.1536271257009624</v>
+        <v>0.09266421746154495</v>
       </c>
       <c r="D98">
-        <v>-0.02099585581125937</v>
+        <v>-0.004894919428076014</v>
       </c>
       <c r="E98">
-        <v>-0.09979860436244654</v>
+        <v>-0.1638809208868008</v>
       </c>
       <c r="F98">
-        <v>0.004076484299893688</v>
+        <v>0.07305342487462897</v>
       </c>
       <c r="G98">
-        <v>-0.2597254130743493</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06659728031703196</v>
+      </c>
+      <c r="H98">
+        <v>0.2958839879580722</v>
+      </c>
+      <c r="I98">
+        <v>0.2001941759147671</v>
+      </c>
+      <c r="J98">
+        <v>0.0971597459088198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02108690966816996</v>
+        <v>0.01354574427096798</v>
       </c>
       <c r="C101">
-        <v>0.0151278615741154</v>
+        <v>-0.02827160049020323</v>
       </c>
       <c r="D101">
-        <v>0.01669527986038143</v>
+        <v>0.02252466386191853</v>
       </c>
       <c r="E101">
-        <v>-0.04082918833314753</v>
+        <v>-0.05965489346609808</v>
       </c>
       <c r="F101">
-        <v>0.009288381976442769</v>
+        <v>-0.04076722449912716</v>
       </c>
       <c r="G101">
-        <v>0.04542426440456258</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.005415841434802725</v>
+      </c>
+      <c r="H101">
+        <v>-0.123611991230217</v>
+      </c>
+      <c r="I101">
+        <v>-0.01553337527371301</v>
+      </c>
+      <c r="J101">
+        <v>0.04197159374335212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1200725591132677</v>
+        <v>0.1199282271073862</v>
       </c>
       <c r="C102">
-        <v>-0.003085617818398799</v>
+        <v>-0.02433348858194084</v>
       </c>
       <c r="D102">
-        <v>0.04914841227141928</v>
+        <v>0.05361210914164588</v>
       </c>
       <c r="E102">
-        <v>0.06950552523088627</v>
+        <v>0.08240301087054663</v>
       </c>
       <c r="F102">
-        <v>0.026306148813697</v>
+        <v>1.430003318792272e-05</v>
       </c>
       <c r="G102">
-        <v>0.01321266990561607</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04208704905228086</v>
+      </c>
+      <c r="H102">
+        <v>0.004802161962807333</v>
+      </c>
+      <c r="I102">
+        <v>-0.01260584146517905</v>
+      </c>
+      <c r="J102">
+        <v>-0.06481262470841891</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01618838710580396</v>
+        <v>0.01980179484650395</v>
       </c>
       <c r="C103">
-        <v>0.001543620549001359</v>
+        <v>-0.008664678899976658</v>
       </c>
       <c r="D103">
-        <v>0.01716853166588235</v>
+        <v>0.01679765357579041</v>
       </c>
       <c r="E103">
-        <v>0.02852639246151889</v>
+        <v>0.01624185068366006</v>
       </c>
       <c r="F103">
-        <v>-0.006941614765886488</v>
+        <v>0.00408437465587025</v>
       </c>
       <c r="G103">
-        <v>-0.00926698914992473</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01321727667606407</v>
+      </c>
+      <c r="H103">
+        <v>-0.00390880019899031</v>
+      </c>
+      <c r="I103">
+        <v>-0.02254232246839838</v>
+      </c>
+      <c r="J103">
+        <v>-0.003419852271825104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
